--- a/dataset_base.xlsx
+++ b/dataset_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\My Drive\Rafael\UniFai\documentação\cicfai\MC-DataScience_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B775ACB-36B4-4C30-A0D3-BB220EF521DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286A04E1-2D9E-4785-A347-47780320697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8059,12 +8059,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8380,13 +8380,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B834304-4F1D-4D49-BF3B-F2D5485CBDFA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
